--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -2547,10 +2547,10 @@
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7:AF1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7:AJ1000001">
       <formula1>'Codelijsten'!$A$4:$A$8</formula1>
@@ -2562,10 +2562,10 @@
       <formula1>'Codelijsten'!$E$4:$E$27</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU7:AU1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001">
-      <formula1>1</formula1>
+      <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB7:BB1000001">
       <formula1>'Codelijsten'!$G$4:$G$60</formula1>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -2387,7 +2387,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>22</v>
@@ -2423,7 +2423,7 @@
         <v>36</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>38</v>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Codelijsten" sheetId="1" r:id="rId1"/>
     <sheet name="opdracht" sheetId="2" r:id="rId2"/>
+    <sheet name="metadata" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="196">
   <si>
     <t>naam</t>
   </si>
@@ -591,14 +592,27 @@
   </si>
   <si>
     <t>vergunningsbesluit</t>
+  </si>
+  <si>
+    <t>Date generated</t>
+  </si>
+  <si>
+    <t>2024-07-19 16:18:48.154253</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -670,12 +684,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1824,71 +1840,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" customWidth="1"/>
-    <col min="4" max="4" width="88.7109375" customWidth="1"/>
-    <col min="5" max="5" width="100.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
-    <col min="8" max="8" width="72.7109375" customWidth="1"/>
-    <col min="9" max="9" width="54.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.7109375" customWidth="1"/>
-    <col min="11" max="11" width="54.7109375" customWidth="1"/>
-    <col min="12" max="12" width="86.7109375" customWidth="1"/>
-    <col min="13" max="13" width="88.7109375" customWidth="1"/>
-    <col min="14" max="14" width="100.7109375" customWidth="1"/>
-    <col min="15" max="15" width="52.7109375" customWidth="1"/>
-    <col min="16" max="16" width="60.7109375" customWidth="1"/>
-    <col min="17" max="17" width="72.7109375" customWidth="1"/>
-    <col min="18" max="18" width="54.7109375" customWidth="1"/>
-    <col min="19" max="19" width="50.7109375" customWidth="1"/>
-    <col min="20" max="20" width="44.7109375" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1"/>
-    <col min="23" max="23" width="58.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="92.7109375" customWidth="1"/>
-    <col min="26" max="26" width="104.7109375" customWidth="1"/>
-    <col min="27" max="27" width="56.7109375" customWidth="1"/>
-    <col min="28" max="28" width="64.7109375" customWidth="1"/>
-    <col min="29" max="29" width="76.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="54.7109375" customWidth="1"/>
-    <col min="32" max="32" width="20.7109375" style="2" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="22.7109375" customWidth="1"/>
-    <col min="36" max="36" width="12.7109375" customWidth="1"/>
-    <col min="37" max="37" width="36.7109375" customWidth="1"/>
-    <col min="38" max="38" width="34.7109375" customWidth="1"/>
-    <col min="39" max="39" width="28.7109375" customWidth="1"/>
-    <col min="40" max="40" width="16.7109375" customWidth="1"/>
-    <col min="41" max="41" width="30.7109375" customWidth="1"/>
-    <col min="42" max="42" width="42.7109375" customWidth="1"/>
-    <col min="43" max="43" width="50.7109375" customWidth="1"/>
-    <col min="44" max="44" width="62.7109375" customWidth="1"/>
-    <col min="45" max="45" width="44.7109375" customWidth="1"/>
-    <col min="46" max="46" width="40.7109375" customWidth="1"/>
-    <col min="47" max="47" width="30.7109375" style="2" customWidth="1"/>
-    <col min="48" max="48" width="26.7109375" customWidth="1"/>
-    <col min="49" max="49" width="44.7109375" style="2" customWidth="1"/>
-    <col min="50" max="50" width="42.7109375" customWidth="1"/>
-    <col min="51" max="51" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="88.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="72.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="54.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="54.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="86.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="88.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="100.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="52.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="72.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="54.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="50.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="44.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="36.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="58.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="90.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="92.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="104.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="56.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="64.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="76.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="58.7109375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="54.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="20.7109375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="52.7109375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="12.7109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="36.7109375" style="2" customWidth="1"/>
+    <col min="38" max="38" width="34.7109375" style="2" customWidth="1"/>
+    <col min="39" max="39" width="28.7109375" style="2" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" style="2" customWidth="1"/>
+    <col min="41" max="41" width="30.7109375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="42.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="50.7109375" style="2" customWidth="1"/>
+    <col min="44" max="44" width="62.7109375" style="2" customWidth="1"/>
+    <col min="45" max="45" width="44.7109375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="40.7109375" style="2" customWidth="1"/>
+    <col min="47" max="47" width="30.7109375" style="3" customWidth="1"/>
+    <col min="48" max="48" width="26.7109375" style="2" customWidth="1"/>
+    <col min="49" max="49" width="44.7109375" style="3" customWidth="1"/>
+    <col min="50" max="50" width="42.7109375" style="4" customWidth="1"/>
+    <col min="51" max="51" width="48.7109375" style="2" customWidth="1"/>
     <col min="52" max="52" width="40.7109375" customWidth="1"/>
-    <col min="53" max="53" width="30.7109375" customWidth="1"/>
-    <col min="54" max="54" width="40.7109375" customWidth="1"/>
-    <col min="55" max="55" width="34.7109375" customWidth="1"/>
+    <col min="53" max="53" width="30.7109375" style="2" customWidth="1"/>
+    <col min="54" max="54" width="40.7109375" style="2" customWidth="1"/>
+    <col min="55" max="55" width="34.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" hidden="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1912,10 +1928,10 @@
       <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2049,31 +2065,31 @@
       </c>
     </row>
     <row r="2" spans="1:55" hidden="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
       <c r="T2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2134,12 +2150,12 @@
       <c r="BC2" s="1"/>
     </row>
     <row r="3" spans="1:55" hidden="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2147,12 +2163,12 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2160,18 +2176,18 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
       <c r="AA3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2179,10 +2195,10 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AH3" s="5" t="s">
+      <c r="AH3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AK3" s="1" t="s">
@@ -2194,7 +2210,7 @@
       <c r="AM3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AO3" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AP3" s="1" t="s">
@@ -2207,17 +2223,17 @@
       <c r="AU3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AV3" s="5" t="s">
+      <c r="AV3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AW3" s="5" t="s">
+      <c r="AW3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5" t="s">
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AZ3" s="5"/>
+      <c r="AZ3" s="7"/>
       <c r="BA3" s="1" t="s">
         <v>85</v>
       </c>
@@ -2229,15 +2245,15 @@
       </c>
     </row>
     <row r="4" spans="1:55" hidden="1">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2252,15 +2268,15 @@
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -2275,15 +2291,15 @@
       <c r="S4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5" t="s">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AB4" s="1" t="s">
@@ -2298,7 +2314,7 @@
       <c r="AE4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="5" t="s">
+      <c r="AP4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AQ4" s="1" t="s">
@@ -2319,15 +2335,15 @@
       <c r="AX4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AY4" s="5" t="s">
+      <c r="AY4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AZ4" s="5" t="s">
+      <c r="AZ4" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:55" hidden="1">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2336,7 +2352,7 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -2345,7 +2361,7 @@
       <c r="N5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -2356,13 +2372,13 @@
       </c>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2386,10 +2402,10 @@
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -2579,4 +2595,33 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,10 +597,10 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-19 16:18:48.154253</t>
-  </si>
-  <si>
-    <t>Version</t>
+    <t>2024-07-23 17:11:38.914296</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>1.0.0</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="198">
   <si>
     <t>naam</t>
   </si>
@@ -597,13 +597,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-23 17:11:38.914296</t>
+    <t>2024-07-23 17:34:47.413395</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>generated_by</t>
+  </si>
+  <si>
+    <t>Ruben Vijverman</t>
   </si>
 </sst>
 </file>
@@ -2599,7 +2605,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2621,6 +2627,14 @@
         <v>195</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,7 +597,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-23 17:34:47.413395</t>
+    <t>2024-07-24 08:44:25.814681</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,7 +597,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 08:44:25.814681</t>
+    <t>2024-07-24 09:00:02.668729</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,7 +597,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 09:00:02.668729</t>
+    <t>2024-07-24 13:26:32.020029</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,7 +597,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-07-24 13:26:32.020029</t>
+    <t>2024-08-01 09:38:07.208579</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,7 +597,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-01 09:38:07.208579</t>
+    <t>2024-08-02 15:51:37.088796</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="196">
   <si>
     <t>naam</t>
   </si>
@@ -597,19 +597,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-02 15:51:37.088796</t>
+    <t>2024-08-02 16:50:23.619594</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>generated_by</t>
-  </si>
-  <si>
-    <t>Ruben Vijverman</t>
+    <t>2.0.0</t>
   </si>
 </sst>
 </file>
@@ -2605,7 +2599,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2627,14 +2621,6 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,7 +597,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-02 16:50:23.619594</t>
+    <t>2024-08-05 10:13:27.418341</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="200">
   <si>
     <t>naam</t>
   </si>
@@ -597,13 +597,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-05 10:13:27.418341</t>
+    <t>2024-08-07 13:31:41.786166</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
     <t>2.0.0</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>xsd_schema.json</t>
   </si>
 </sst>
 </file>
@@ -2599,7 +2611,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2621,6 +2633,22 @@
         <v>195</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,7 +597,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-07 13:31:41.786166</t>
+    <t>2024-08-08 11:46:49.470429</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,13 +597,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-08 11:46:49.470429</t>
+    <t>2024-08-12 14:45:33.341827</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>mode</t>
@@ -615,7 +615,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>xsd_schema.json</t>
+    <t>productie</t>
   </si>
 </sst>
 </file>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,7 +597,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-08-12 14:45:33.341827</t>
+    <t>2024-09-10 13:00:49.917357</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,13 +597,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-09-10 13:00:49.917357</t>
+    <t>2024-09-10 13:37:35.415775</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.2</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -597,7 +597,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-09-10 13:37:35.415775</t>
+    <t>2024-11-07 19:29:09.498528</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -16,33 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="226">
   <si>
     <t>naam</t>
   </si>
   <si>
-    <t>opdrachtgever-choice_1-naam</t>
-  </si>
-  <si>
-    <t>opdrachtgever-choice_1-sequence_1-kbonummer</t>
+    <t>opdrachtgever-naam</t>
+  </si>
+  <si>
+    <t>opdrachtgever-choice_1-kbonummer</t>
   </si>
   <si>
     <t>kbonummer</t>
   </si>
   <si>
-    <t>opdrachtgever-choice_1-sequence_1-detailnaam</t>
-  </si>
-  <si>
-    <t>detailnaam</t>
-  </si>
-  <si>
-    <t>opdrachtgever-choice_1-sequence_1-vestigingsnummer</t>
-  </si>
-  <si>
-    <t>vestigingsnummer</t>
-  </si>
-  <si>
-    <t>sequence_1</t>
+    <t>opdrachtgever-choice_1-ovocode</t>
+  </si>
+  <si>
+    <t>ovocode</t>
   </si>
   <si>
     <t>choice_1</t>
@@ -81,16 +72,13 @@
     <t>opdrachtgever</t>
   </si>
   <si>
-    <t>opdrachtnemer-choice_1-naam</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-choice_1-sequence_1-kbonummer</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-choice_1-sequence_1-detailnaam</t>
-  </si>
-  <si>
-    <t>opdrachtnemer-choice_1-sequence_1-vestigingsnummer</t>
+    <t>opdrachtnemer-naam</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-choice_1-kbonummer</t>
+  </si>
+  <si>
+    <t>opdrachtnemer-choice_1-ovocode</t>
   </si>
   <si>
     <t>opdrachtnemer-contact-naam</t>
@@ -129,16 +117,13 @@
     <t>omschrijving</t>
   </si>
   <si>
-    <t>dataleverancier-choice_1-naam</t>
-  </si>
-  <si>
-    <t>dataleverancier-choice_1-sequence_1-kbonummer</t>
-  </si>
-  <si>
-    <t>dataleverancier-choice_1-sequence_1-detailnaam</t>
-  </si>
-  <si>
-    <t>dataleverancier-choice_1-sequence_1-vestigingsnummer</t>
+    <t>dataleverancier-naam</t>
+  </si>
+  <si>
+    <t>dataleverancier-choice_1-kbonummer</t>
+  </si>
+  <si>
+    <t>dataleverancier-choice_1-ovocode</t>
   </si>
   <si>
     <t>dataleverancier-contact-naam</t>
@@ -255,6 +240,27 @@
     <t>jaar</t>
   </si>
   <si>
+    <t>bijlage-auteurs</t>
+  </si>
+  <si>
+    <t>auteurs</t>
+  </si>
+  <si>
+    <t>bijlage-organisaties</t>
+  </si>
+  <si>
+    <t>organisaties</t>
+  </si>
+  <si>
+    <t>bijlage-bijlage_type</t>
+  </si>
+  <si>
+    <t>bijlage_type</t>
+  </si>
+  <si>
+    <t>bijlage-opmerking</t>
+  </si>
+  <si>
     <t>bijlage-choice_2-bestand</t>
   </si>
   <si>
@@ -270,21 +276,6 @@
     <t>choice_2</t>
   </si>
   <si>
-    <t>bijlage-auteurs</t>
-  </si>
-  <si>
-    <t>auteurs</t>
-  </si>
-  <si>
-    <t>bijlage-bijlage_type</t>
-  </si>
-  <si>
-    <t>bijlage_type</t>
-  </si>
-  <si>
-    <t>bijlage-opmerking</t>
-  </si>
-  <si>
     <t>bijlage</t>
   </si>
   <si>
@@ -354,6 +345,9 @@
     <t>andere</t>
   </si>
   <si>
+    <t>VLAREBO</t>
+  </si>
+  <si>
     <t>Geologisch onderzoek</t>
   </si>
   <si>
@@ -426,6 +420,12 @@
     <t>CTE onderzoek</t>
   </si>
   <si>
+    <t>Grondverzet onderzoek</t>
+  </si>
+  <si>
+    <t>Evaluatie tijdelijk handelingskader PFAS</t>
+  </si>
+  <si>
     <t>edov</t>
   </si>
   <si>
@@ -594,16 +594,94 @@
     <t>vergunningsbesluit</t>
   </si>
   <si>
+    <t>Onderkenningsproeven</t>
+  </si>
+  <si>
+    <t>Volumemassa &amp; watergehalte</t>
+  </si>
+  <si>
+    <t>Steenkool</t>
+  </si>
+  <si>
+    <t>Mech. proeven - CRS</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Schuifweerstandskarakteristieken</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Versterkte proctorproef</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Samendrukking</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Schuifweerstand CD</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Schuifweerstand CU</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Schuifweerstand</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Schuifweerstand UC</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Schuifweerstand UU</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Vinproef</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Vrije prismaproef</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Zwelproef</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Doorlatendheid CV</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Doorlatendheidsproef - algemeen</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Doorlatendheid</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Samendrukkingsproef</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Doorlatendheid VVH</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Doorlatendheid VVV</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Doorlatendheid in tx cel</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Meest losse pakking</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Advanced Triaxiaal testing</t>
+  </si>
+  <si>
+    <t>Mech. proeven - Standaard proctorproef</t>
+  </si>
+  <si>
+    <t>Grondverzet - Technisch verslag</t>
+  </si>
+  <si>
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-07 19:29:09.498528</t>
+    <t>2024-11-08 01:22:19.824551</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.2</t>
+    <t>2.0.3</t>
   </si>
   <si>
     <t>mode</t>
@@ -643,7 +721,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,12 +731,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7200"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB87F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -708,9 +780,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +802,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C3:D17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C3:D18" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -743,7 +812,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E3:F27" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E3:F29" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -753,7 +822,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G3:H60" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G3:H86" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -1047,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1058,7 +1127,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1070,512 +1139,530 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
         <v>136</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
         <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>139</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="C9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
         <v>140</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
         <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
         <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
         <v>143</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
         <v>144</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
         <v>145</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="C15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
         <v>146</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="C16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
         <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
         <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="3:8">
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
         <v>149</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="3:8">
       <c r="E19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
         <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="3:8">
       <c r="E20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
         <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="3:8">
       <c r="E21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
         <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="3:8">
       <c r="E22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
         <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="3:8">
       <c r="E23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
         <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="E24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
         <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="3:8">
       <c r="E25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
         <v>156</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="3:8">
       <c r="E26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
         <v>157</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="3:8">
       <c r="E27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
         <v>158</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="3:8">
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
       <c r="G28" t="s">
         <v>159</v>
       </c>
       <c r="H28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="3:8">
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
       <c r="G29" t="s">
         <v>160</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="3:8">
@@ -1583,7 +1670,7 @@
         <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="3:8">
@@ -1591,7 +1678,7 @@
         <v>162</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="3:8">
@@ -1599,7 +1686,7 @@
         <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="7:8">
@@ -1607,7 +1694,7 @@
         <v>164</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="7:8">
@@ -1615,7 +1702,7 @@
         <v>165</v>
       </c>
       <c r="H34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="7:8">
@@ -1623,7 +1710,7 @@
         <v>166</v>
       </c>
       <c r="H35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="7:8">
@@ -1631,7 +1718,7 @@
         <v>167</v>
       </c>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="7:8">
@@ -1639,7 +1726,7 @@
         <v>168</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="7:8">
@@ -1647,7 +1734,7 @@
         <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="7:8">
@@ -1655,7 +1742,7 @@
         <v>170</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="7:8">
@@ -1663,7 +1750,7 @@
         <v>171</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="7:8">
@@ -1671,7 +1758,7 @@
         <v>172</v>
       </c>
       <c r="H41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="7:8">
@@ -1679,7 +1766,7 @@
         <v>173</v>
       </c>
       <c r="H42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="7:8">
@@ -1687,7 +1774,7 @@
         <v>174</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="7:8">
@@ -1695,7 +1782,7 @@
         <v>175</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="7:8">
@@ -1703,7 +1790,7 @@
         <v>176</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="7:8">
@@ -1711,7 +1798,7 @@
         <v>177</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="7:8">
@@ -1719,7 +1806,7 @@
         <v>178</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="7:8">
@@ -1727,7 +1814,7 @@
         <v>179</v>
       </c>
       <c r="H48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="7:8">
@@ -1735,7 +1822,7 @@
         <v>180</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="7:8">
@@ -1743,7 +1830,7 @@
         <v>181</v>
       </c>
       <c r="H50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="7:8">
@@ -1751,7 +1838,7 @@
         <v>182</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="7:8">
@@ -1759,7 +1846,7 @@
         <v>183</v>
       </c>
       <c r="H52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="7:8">
@@ -1767,7 +1854,7 @@
         <v>184</v>
       </c>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="7:8">
@@ -1775,7 +1862,7 @@
         <v>185</v>
       </c>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="7:8">
@@ -1783,7 +1870,7 @@
         <v>186</v>
       </c>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="7:8">
@@ -1791,7 +1878,7 @@
         <v>187</v>
       </c>
       <c r="H56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="7:8">
@@ -1799,7 +1886,7 @@
         <v>188</v>
       </c>
       <c r="H57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="7:8">
@@ -1807,7 +1894,7 @@
         <v>189</v>
       </c>
       <c r="H58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="7:8">
@@ -1815,7 +1902,7 @@
         <v>190</v>
       </c>
       <c r="H59" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="7:8">
@@ -1823,7 +1910,215 @@
         <v>191</v>
       </c>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8">
+      <c r="G61" t="s">
+        <v>192</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8">
+      <c r="G62" t="s">
+        <v>193</v>
+      </c>
+      <c r="H62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8">
+      <c r="G63" t="s">
+        <v>194</v>
+      </c>
+      <c r="H63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8">
+      <c r="G64" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="G65" t="s">
+        <v>196</v>
+      </c>
+      <c r="H65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="G66" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="G67" t="s">
+        <v>198</v>
+      </c>
+      <c r="H67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="G68" t="s">
+        <v>199</v>
+      </c>
+      <c r="H68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="G69" t="s">
+        <v>200</v>
+      </c>
+      <c r="H69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8">
+      <c r="G70" t="s">
+        <v>201</v>
+      </c>
+      <c r="H70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8">
+      <c r="G71" t="s">
+        <v>202</v>
+      </c>
+      <c r="H71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="G72" t="s">
+        <v>203</v>
+      </c>
+      <c r="H72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="G73" t="s">
+        <v>204</v>
+      </c>
+      <c r="H73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="G74" t="s">
+        <v>205</v>
+      </c>
+      <c r="H74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="G75" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8">
+      <c r="G76" t="s">
+        <v>207</v>
+      </c>
+      <c r="H76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8">
+      <c r="G77" t="s">
+        <v>208</v>
+      </c>
+      <c r="H77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8">
+      <c r="G78" t="s">
+        <v>209</v>
+      </c>
+      <c r="H78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8">
+      <c r="G79" t="s">
+        <v>210</v>
+      </c>
+      <c r="H79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8">
+      <c r="G80" t="s">
+        <v>211</v>
+      </c>
+      <c r="H80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8">
+      <c r="G81" t="s">
+        <v>212</v>
+      </c>
+      <c r="H81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8">
+      <c r="G82" t="s">
+        <v>213</v>
+      </c>
+      <c r="H82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8">
+      <c r="G83" t="s">
+        <v>214</v>
+      </c>
+      <c r="H83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8">
+      <c r="G84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8">
+      <c r="G85" t="s">
+        <v>216</v>
+      </c>
+      <c r="H85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8">
+      <c r="G86" t="s">
+        <v>217</v>
+      </c>
+      <c r="H86" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1846,210 +2141,207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC6"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="100.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="72.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="54.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="50.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="54.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="86.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="88.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="100.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="52.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="60.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="72.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="54.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="50.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="44.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="58.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="92.7109375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="104.7109375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="56.7109375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="64.7109375" style="2" customWidth="1"/>
-    <col min="29" max="29" width="76.7109375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" style="2" customWidth="1"/>
-    <col min="31" max="31" width="54.7109375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="20.7109375" style="3" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" style="3" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="22.7109375" style="2" customWidth="1"/>
-    <col min="36" max="36" width="12.7109375" style="2" customWidth="1"/>
-    <col min="37" max="37" width="36.7109375" style="2" customWidth="1"/>
-    <col min="38" max="38" width="34.7109375" style="2" customWidth="1"/>
-    <col min="39" max="39" width="28.7109375" style="2" customWidth="1"/>
-    <col min="40" max="40" width="16.7109375" style="2" customWidth="1"/>
-    <col min="41" max="41" width="30.7109375" style="2" customWidth="1"/>
-    <col min="42" max="42" width="42.7109375" style="2" customWidth="1"/>
-    <col min="43" max="43" width="50.7109375" style="2" customWidth="1"/>
-    <col min="44" max="44" width="62.7109375" style="2" customWidth="1"/>
-    <col min="45" max="45" width="44.7109375" style="2" customWidth="1"/>
-    <col min="46" max="46" width="40.7109375" style="2" customWidth="1"/>
-    <col min="47" max="47" width="30.7109375" style="3" customWidth="1"/>
-    <col min="48" max="48" width="26.7109375" style="2" customWidth="1"/>
-    <col min="49" max="49" width="44.7109375" style="3" customWidth="1"/>
-    <col min="50" max="50" width="42.7109375" style="4" customWidth="1"/>
-    <col min="51" max="51" width="48.7109375" style="2" customWidth="1"/>
-    <col min="52" max="52" width="40.7109375" customWidth="1"/>
-    <col min="53" max="53" width="30.7109375" style="2" customWidth="1"/>
-    <col min="54" max="54" width="40.7109375" style="2" customWidth="1"/>
-    <col min="55" max="55" width="34.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="72.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="54.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="50.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="64.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="52.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="60.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="72.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="54.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="50.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="44.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="40.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="64.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="56.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="64.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="76.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="58.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="54.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="52.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="22.7109375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="36.7109375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="34.7109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="28.7109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" style="2" customWidth="1"/>
+    <col min="38" max="38" width="30.7109375" style="2" customWidth="1"/>
+    <col min="39" max="39" width="42.7109375" style="2" customWidth="1"/>
+    <col min="40" max="40" width="50.7109375" style="2" customWidth="1"/>
+    <col min="41" max="41" width="62.7109375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="44.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="40.7109375" style="2" customWidth="1"/>
+    <col min="44" max="44" width="30.7109375" style="3" customWidth="1"/>
+    <col min="45" max="45" width="26.7109375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="44.7109375" style="3" customWidth="1"/>
+    <col min="47" max="47" width="42.7109375" style="4" customWidth="1"/>
+    <col min="48" max="48" width="30.7109375" style="2" customWidth="1"/>
+    <col min="49" max="50" width="40.7109375" style="2" customWidth="1"/>
+    <col min="51" max="51" width="34.7109375" style="2" customWidth="1"/>
+    <col min="52" max="52" width="48.7109375" style="2" customWidth="1"/>
+    <col min="53" max="53" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" hidden="1">
+    <row r="1" spans="1:53" hidden="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="AQ1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="AS1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>74</v>
@@ -2058,552 +2350,506 @@
         <v>76</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" hidden="1">
-      <c r="A2" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" hidden="1">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="AC2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="1"/>
       <c r="AG2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
+      <c r="AS2" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
-      <c r="AV2" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-    </row>
-    <row r="3" spans="1:55" hidden="1">
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="3" spans="1:53" hidden="1">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="J3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="7" t="s">
+      <c r="R3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AE3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA3" s="1"/>
+    </row>
+    <row r="4" spans="1:53" hidden="1">
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AH3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW3" s="7" t="s">
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC3" s="1" t="s">
+      <c r="O4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU4" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:55" hidden="1">
-      <c r="B4" s="7" t="s">
+      <c r="AZ4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ4" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" hidden="1">
-      <c r="C5" s="7" t="s">
-        <v>3</v>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>3</v>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AF5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AI6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AH5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AM6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AL5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AP6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT6" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AV6" s="1" t="s">
+      <c r="AU5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AX6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
+      <c r="AX5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BA6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>88</v>
+      <c r="BA5" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="W2:AE2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AP3:AT3"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AV2:BC2"/>
+  <mergeCells count="17">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AS2:BA2"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF7:AF1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD6:AD1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7:AJ1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG1000001">
       <formula1>'Codelijsten'!$A$4:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL7:AL1000001">
-      <formula1>'Codelijsten'!$C$4:$C$17</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI1000001">
+      <formula1>'Codelijsten'!$C$4:$C$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7:AM1000001">
-      <formula1>'Codelijsten'!$E$4:$E$27</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ1000001">
+      <formula1>'Codelijsten'!$E$4:$E$29</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU7:AU1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT6:AT1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB7:BB1000001">
-      <formula1>'Codelijsten'!$G$4:$G$60</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX6:AX1000001">
+      <formula1>'Codelijsten'!$G$4:$G$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AJ6" location="'Codelijsten'!$A$2" display="status"/>
-    <hyperlink ref="AL6" location="'Codelijsten'!$C$2" display="kwaliteit-origine"/>
-    <hyperlink ref="AM6" location="'Codelijsten'!$E$2" display="kwaliteit-aard"/>
-    <hyperlink ref="BB6" location="'Codelijsten'!$G$2" display="bijlage-bijlage_type"/>
+    <hyperlink ref="AG5" location="'Codelijsten'!$A$2" display="status"/>
+    <hyperlink ref="AI5" location="'Codelijsten'!$C$2" display="kwaliteit-origine"/>
+    <hyperlink ref="AJ5" location="'Codelijsten'!$E$2" display="kwaliteit-aard"/>
+    <hyperlink ref="AX5" location="'Codelijsten'!$G$2" display="bijlage-bijlage_type"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2619,34 +2865,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -675,7 +675,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 01:22:19.824551</t>
+    <t>2024-11-08 02:13:56.553704</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -675,7 +675,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 02:13:56.553704</t>
+    <t>2024-11-08 08:59:56.375326</t>
   </si>
   <si>
     <t>version</t>
@@ -687,7 +687,7 @@
     <t>mode</t>
   </si>
   <si>
-    <t>local</t>
+    <t>online</t>
   </si>
   <si>
     <t>source</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -675,19 +675,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 08:59:56.375326</t>
+    <t>2024-11-12 08:42:21.275149</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.3</t>
+    <t>2.0.4</t>
   </si>
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>online</t>
+    <t>local</t>
   </si>
   <si>
     <t>source</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -675,13 +675,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-12 08:42:21.275149</t>
+    <t>2024-12-02 16:44:14.276608</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.4</t>
+    <t>2.0.5</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -675,13 +675,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-02 16:44:14.276608</t>
+    <t>2024-12-10 17:55:20.846817</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.5</t>
+    <t>2.0.6</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -675,13 +675,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-10 17:55:20.846817</t>
+    <t>2024-12-20 12:16:43.349053</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.6</t>
+    <t>2.0.7</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -675,7 +675,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 12:16:43.349053</t>
+    <t>2024-12-20 14:58:13.945259</t>
   </si>
   <si>
     <t>version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -675,13 +675,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 14:58:13.945259</t>
+    <t>2024-12-23 11:42:06.153229</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.7</t>
+    <t>2.0.8</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="228">
   <si>
     <t>naam</t>
   </si>
@@ -99,6 +99,33 @@
     <t>opdrachtnemer</t>
   </si>
   <si>
+    <t>dataleverancier-naam</t>
+  </si>
+  <si>
+    <t>dataleverancier-choice_1-kbonummer</t>
+  </si>
+  <si>
+    <t>dataleverancier-choice_1-ovocode</t>
+  </si>
+  <si>
+    <t>dataleverancier-contact-naam</t>
+  </si>
+  <si>
+    <t>dataleverancier-contact-voornaam</t>
+  </si>
+  <si>
+    <t>dataleverancier-contact-telefoonnummer</t>
+  </si>
+  <si>
+    <t>dataleverancier-contact-email</t>
+  </si>
+  <si>
+    <t>dataleverancier-contact-gsm</t>
+  </si>
+  <si>
+    <t>dataleverancier</t>
+  </si>
+  <si>
     <t>dataidentifier-permkey</t>
   </si>
   <si>
@@ -117,33 +144,6 @@
     <t>omschrijving</t>
   </si>
   <si>
-    <t>dataleverancier-naam</t>
-  </si>
-  <si>
-    <t>dataleverancier-choice_1-kbonummer</t>
-  </si>
-  <si>
-    <t>dataleverancier-choice_1-ovocode</t>
-  </si>
-  <si>
-    <t>dataleverancier-contact-naam</t>
-  </si>
-  <si>
-    <t>dataleverancier-contact-voornaam</t>
-  </si>
-  <si>
-    <t>dataleverancier-contact-telefoonnummer</t>
-  </si>
-  <si>
-    <t>dataleverancier-contact-email</t>
-  </si>
-  <si>
-    <t>dataleverancier-contact-gsm</t>
-  </si>
-  <si>
-    <t>dataleverancier</t>
-  </si>
-  <si>
     <t>startdatum</t>
   </si>
   <si>
@@ -675,13 +675,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-23 11:42:06.153229</t>
+    <t>2025-02-14 13:20:04.450162</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
+  </si>
+  <si>
+    <t>xsd-version</t>
+  </si>
+  <si>
+    <t>9.1.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -2164,17 +2170,17 @@
     <col min="15" max="15" width="72.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="54.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="50.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="44.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="36.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="40.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="64.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="56.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="64.7109375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="76.7109375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="54.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="40.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="68.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="64.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="56.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="64.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="76.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="58.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="54.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="44.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="36.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="24.7109375" style="2" customWidth="1"/>
     <col min="29" max="29" width="20.7109375" style="3" customWidth="1"/>
     <col min="30" max="30" width="18.7109375" style="3" customWidth="1"/>
     <col min="31" max="31" width="52.7109375" style="2" customWidth="1"/>
@@ -2253,38 +2259,38 @@
       <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>42</v>
@@ -2386,23 +2392,23 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="R2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
       <c r="AC2" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,25 +2481,25 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="Z3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="AE3" s="6" t="s">
         <v>45</v>
       </c>
@@ -2589,25 +2595,25 @@
       <c r="Q4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="V4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="Y4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AM4" s="6" t="s">
@@ -2690,38 +2696,38 @@
       <c r="Q5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="AB5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>42</v>
@@ -2807,10 +2813,10 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="AM3:AQ3"/>
@@ -2857,7 +2863,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2895,6 +2901,14 @@
         <v>225</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="230">
   <si>
     <t>naam</t>
   </si>
@@ -675,7 +675,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 13:20:04.450162</t>
+    <t>2025-02-14 14:05:34.787108</t>
   </si>
   <si>
     <t>version</t>
@@ -684,10 +684,16 @@
     <t>2.0.9</t>
   </si>
   <si>
-    <t>xsd-version</t>
+    <t>xdov-version</t>
   </si>
   <si>
     <t>9.1.0</t>
+  </si>
+  <si>
+    <t>schema-version</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -2863,7 +2869,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2909,6 +2915,14 @@
         <v>227</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -675,13 +675,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 14:05:34.787108</t>
+    <t>2025-02-24 16:59:56.314196</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/data/opdracht_template_full.xlsx
+++ b/data/opdracht_template_full.xlsx
@@ -675,13 +675,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-24 16:59:56.314196</t>
+    <t>2025-02-28 11:24:50.458092</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>xdov-version</t>
